--- a/biology/Botanique/Baphia_leptostemma/Baphia_leptostemma.xlsx
+++ b/biology/Botanique/Baphia_leptostemma/Baphia_leptostemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baphia leptostemma est une espèce de plantes du genre Baphia de la famille des Leguminosae, présente en Afrique centrale.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété Baphia leptostemma var. conraui (Harms) Soladoye est endémique du Cameroun. Elle a été collectée[2] par Gustav Conrau[3] à Bangwe (ou Bangwa, Ngwe[4]) dans la région du Sud-Ouest.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété Baphia leptostemma var. conraui (Harms) Soladoye est endémique du Cameroun. Elle a été collectée par Gustav Conrau à Bangwe (ou Bangwa, Ngwe) dans la région du Sud-Ouest.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,14 +584,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 septembre 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 septembre 2017) :
 sous-espèce Baphia leptostemma subsp. gracilipes
 sous-espèce Baphia leptostemma subsp. leptostemma
-Selon The Plant List            (27 septembre 2017)[1] :
+Selon The Plant List            (27 septembre 2017) :
 sous-espèce Baphia leptostemma subsp. gracilipes (Harms) Soladoye
-Selon Tropicos                                           (27 septembre 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Baphia leptostemma subsp. gracilipes (Harms) Soladoye
 sous-espèce Baphia leptostemma subsp. leptostemma
 variété Baphia leptostemma var. conraui (Harms) Soladoye
